--- a/Idaho/Regulatory/IDre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/Idaho/Regulatory/IDre_Regulatory Schema Mapping to WaDE.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Idaho\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33059A3-90AB-45DF-8174-A4FE45BF6E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD523574-3BEE-4386-84F7-ACC5F00619C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="5" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
-    <sheet name="Date" sheetId="16" r:id="rId2"/>
-    <sheet name="Organizations" sheetId="7" r:id="rId3"/>
-    <sheet name="ReportingUnits" sheetId="13" r:id="rId4"/>
-    <sheet name="RegulatoryOverlay" sheetId="14" r:id="rId5"/>
-    <sheet name="RegulatoryReportingUnits_fact" sheetId="15" r:id="rId6"/>
-    <sheet name="misc" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
+    <sheet name="Mapping Notes" sheetId="1" r:id="rId2"/>
+    <sheet name="Date" sheetId="16" r:id="rId3"/>
+    <sheet name="Organizations" sheetId="7" r:id="rId4"/>
+    <sheet name="ReportingUnits" sheetId="13" r:id="rId5"/>
+    <sheet name="RegulatoryOverlay" sheetId="14" r:id="rId6"/>
+    <sheet name="RegulatoryReportingUnits_fact" sheetId="15" r:id="rId7"/>
+    <sheet name="misc" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -149,13 +150,7 @@
     <t>Name of the contact person</t>
   </si>
   <si>
-    <t>OrganizationDataMappingURL</t>
-  </si>
-  <si>
     <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Colorado</t>
-  </si>
-  <si>
-    <t>Link to where the organization data can be found.</t>
   </si>
   <si>
     <t>OrganizationName</t>
@@ -431,9 +426,6 @@
     <t>"Active"</t>
   </si>
   <si>
-    <t>*make custom</t>
-  </si>
-  <si>
     <t>NMre_O1</t>
   </si>
   <si>
@@ -447,9 +439,6 @@
   </si>
   <si>
     <t>Linda Davis</t>
-  </si>
-  <si>
-    <t>https://maps.idwr.idaho.gov/map/</t>
   </si>
   <si>
     <t>208-287-4800</t>
@@ -473,41 +462,210 @@
     <t>We want the Rathdrum, Treasure Valley, and Eastern Snake Comprehensive Aquifer Management Plan (CAMP) ares.</t>
   </si>
   <si>
-    <t>Comprehensive Aquifer Management Plan</t>
-  </si>
-  <si>
     <t>IDre_RU + counter</t>
-  </si>
-  <si>
-    <t>Rathdrum
-Treasure Valley
-Eastern SnakE</t>
   </si>
   <si>
     <t>IDre_RO + counter</t>
   </si>
   <si>
-    <t>Rathdrum Prairie CAMP: https://idwr.idaho.gov/IWRB/water-planning/CAMPs/rathdrum-prairie/
-Treasure Valley CAMP: https://idwr.idaho.gov/iwrb/water-planning/camps/treasure-valley/
-Eastern Snake River Plain Aquifer CAMP: https://idwr.idaho.gov/iwrb/water-planning/camps/espa/</t>
-  </si>
-  <si>
     <t>Groundwater</t>
   </si>
   <si>
-    <t>The 2008 Legislature approved House Bill 428 and House Bill 644 establishing the Statewide Comprehensive Aquifer Planning and Management Program (Idaho Code § 42-1779) and the Aquifer Planning and Management Fund (Idaho Code § 42-1780). This legislation authorized characterization and planning efforts for ten different basins from 2008 through 2018.
+    <t>Idaho Department of Water Resources</t>
+  </si>
+  <si>
+    <t>https://data-idwr.hub.arcgis.com/datasets/rathdrum-comprehensive-aquifer-management-plan/explore?location=47.653070%2C-116.087083%2C7.73</t>
+  </si>
+  <si>
+    <t>https://data-idwr.hub.arcgis.com/datasets/IDWR::treasure-valley-comprehensive-aquifer-management-plan/explore?location=43.145589%2C-115.877224%2C7.65</t>
+  </si>
+  <si>
+    <t>https://data-idwr.hub.arcgis.com/datasets/eastern-snake-comprehensive-aquifer-management-plan/explore?location=43.322127%2C-114.298158%2C6.00</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Organizations:</t>
+  </si>
+  <si>
+    <t>Utah Division of Water Rights</t>
+  </si>
+  <si>
+    <t>Describe the Data:</t>
+  </si>
+  <si>
+    <t>Groundwater Districts</t>
+  </si>
+  <si>
+    <t>POD Withdrawl data.</t>
+  </si>
+  <si>
+    <t>https://data-idwr.hub.arcgis.com/datasets/groundwater-districts/explore?location=44.257184%2C-114.070068%2C6.00</t>
+  </si>
+  <si>
+    <t>https://data-idwr.hub.arcgis.com/datasets/IDWR::lower-snake-river-aquifer-recharge-district/explore?location=42.761496%2C-114.701649%2C10.69</t>
+  </si>
+  <si>
+    <t>Unanswered Questions:</t>
+  </si>
+  <si>
+    <t>reporting unit data throughout data from the IDWR</t>
+  </si>
+  <si>
+    <t>https://idwr.idaho.gov/water-rights/groundwater-management-areas/map/</t>
+  </si>
+  <si>
+    <t>Groundwater Management Areas</t>
+  </si>
+  <si>
+    <t>Aquifer Recharge Districts</t>
+  </si>
+  <si>
+    <t>Rathdrum Prairie CAMP</t>
+  </si>
+  <si>
+    <t>Treasure Valley CAMP</t>
+  </si>
+  <si>
+    <t>Eastern Snake Camp</t>
+  </si>
+  <si>
+    <t>These are all from the same department, we will merge into one regulatory project.</t>
+  </si>
+  <si>
+    <t>-
+-
+-
+NAME
+NAME
+NAME</t>
+  </si>
+  <si>
+    <t>-
+-
+-
+OBJECTID
+OBJECTID
+OBJECTID</t>
+  </si>
+  <si>
+    <t>For CAMP areas, we will create our own uniqueID</t>
+  </si>
+  <si>
+    <t>For CAMP Files, use: 'Rathdrum
+Treasure Valley
+Eastern SnakE</t>
+  </si>
+  <si>
+    <t>-
+-
+-
+Groundwater Districts
+Groundwater Management Areas
+Aquifer Recharge Area</t>
+  </si>
+  <si>
+    <t>Comprehensive Aquifer Management Plan
+Comprehensive Aquifer Management Plan
+Comprehensive Aquifer Management Plan
+Groundwater Districts
+Groundwater Management Areas
+Aquifer Recharge Area</t>
+  </si>
+  <si>
+    <r>
+      <t>For CAMP files, use this: "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The 2008 Legislature approved House Bill 428 and House Bill 644 establishing the Statewide Comprehensive Aquifer Planning and Management Program (Idaho Code § 42-1779) and the Aquifer Planning and Management Fund (Idaho Code § 42-1780). This legislation authorized characterization and planning efforts for ten different basins from 2008 through 2018.
 The Comprehensive Aquifer Planning and Management Program was designed to provide IWRB and IDWR with the necessary information to develop plans for managing groundwater and surface water resources into the future. The program had two phases:
 a technical component to characterize the surface water and groundwater resources of each basin
 a planning component to integrate the technical knowledge with an assessment of current and projected future water uses and constraints
 At the culmination of this program, the intent was to develop long-range plans for conjunctively managing the water resources of each basin by integrating hydrologic realities with the social needs. These water management plans were designed to address water supply and demand issues looking out 50 years into the future, and investigated strategies which will lead to sustainable water supplies and optimum use of the water resources.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+For Groundwater Districts, Groundwater Management Areas, Aquifer Recharge Areamanages: "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>water via water allocation and distribution processes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>."</t>
+    </r>
   </si>
   <si>
     <t>Rathdrum Prairie CAMP
 Treasure Valley CAMP
-Eastern Snake River Plain Aquifer CAMP</t>
+Eastern Snake River Plain Aquifer CAMP
+-
+-
+-</t>
   </si>
   <si>
-    <t>Idaho Department of Water Resources</t>
+    <t>*make custom
+make custom
+make custom
+-
+-
+-</t>
+  </si>
+  <si>
+    <t>Rathdrum Prairie CAMP: https://idwr.idaho.gov/IWRB/water-planning/CAMPs/rathdrum-prairie/
+Treasure Valley CAMP: https://idwr.idaho.gov/iwrb/water-planning/camps/treasure-valley/
+Eastern Snake River Plain Aquifer CAMP:  https://idwr.idaho.gov/iwrb/water-planning/camps/espa/
+Groundwater Districts: https://idwr.idaho.gov/water-rights/groundwater-districts/
+Groundwater Management Areas: https://idwr.idaho.gov/water-rights/groundwater-management-areas/
+Aquifer Recharge Area: https://idwr.idaho.gov/water-rights/aquifer-recharge-districts/</t>
+  </si>
+  <si>
+    <t>1/1/2009
+1/1/2009
+1/1/2009
+1/1/1995
+1/1/1982
+7/1/1978</t>
+  </si>
+  <si>
+    <t>Comprehensive Aquifer Management Plan
+Comprehensive Aquifer Management Plan
+Comprehensive Aquifer Management Plan
+Groundwater Districts
+Groundwater Management Areas
+Aquifer Recharge Areas</t>
   </si>
 </sst>
 </file>
@@ -517,7 +675,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,8 +835,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -869,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1156,14 +1323,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1479,11 +1659,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E10FF69-C938-4648-9427-30B185713709}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="105"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="104"/>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="105"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="104"/>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="105"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="105"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="105"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="105"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="106"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="106"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="106"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="106"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="106" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{18BE8CBF-196A-48EF-8D30-1E30EAA5D09A}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{FACAA0EF-DE79-4BBC-B9AB-6C57B464297A}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{2F897472-BA15-436F-823D-18BCE5AF9C3F}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00BCF6E6-D598-40A3-B3CB-76AB23C71395}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{4E2A7711-017B-4D64-B83A-C6E4D690317B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1494,45 +1831,51 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="85"/>
+      <c r="B4" s="85" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
+      <c r="B5" s="84" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
+      <c r="B6" s="59" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>143</v>
-      </c>
+      <c r="B7" s="59"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
+      <c r="A8" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="59"/>
@@ -1556,57 +1899,61 @@
       <c r="B15" s="59"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="83" t="s">
-        <v>127</v>
-      </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="83" t="s">
+        <v>125</v>
+      </c>
       <c r="B17" s="59"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="59"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" s="59"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="59"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="59"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="59"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="59"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="59"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="59"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="59"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="59"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="59"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{A29F771C-28CF-4F5E-ABC6-73FF86AA5F2C}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{856CF519-74D8-48B2-995F-4252FA4FA834}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BE28D8-590B-4A0E-97AD-12782E26EA65}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -1670,7 +2017,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>25</v>
@@ -1690,10 +2037,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>11</v>
@@ -1710,10 +2057,10 @@
         <v>11</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1721,7 +2068,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>18</v>
@@ -1741,7 +2088,7 @@
         <v>2013</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1777,12 +2124,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1885,7 +2232,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F4" s="86"/>
       <c r="G4" s="87"/>
@@ -1913,7 +2260,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F5" s="88"/>
       <c r="G5" s="89"/>
@@ -1941,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F6" s="88"/>
       <c r="G6" s="89"/>
@@ -1957,7 +2304,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>19</v>
@@ -1969,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F7" s="88"/>
       <c r="G7" s="89"/>
@@ -1977,10 +2324,10 @@
         <v>11</v>
       </c>
       <c r="I7" s="74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1997,7 +2344,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F8" s="88"/>
       <c r="G8" s="89"/>
@@ -2008,24 +2355,24 @@
         <v>40</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="89"/>
@@ -2033,27 +2380,27 @@
         <v>11</v>
       </c>
       <c r="I9" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J9" s="79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>138</v>
+      <c r="E10" s="102" t="s">
+        <v>135</v>
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="89"/>
@@ -2061,7 +2408,7 @@
         <v>11</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J10" s="79" t="s">
         <v>46</v>
@@ -2072,7 +2419,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>11</v>
@@ -2081,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F11" s="88"/>
       <c r="G11" s="89"/>
@@ -2089,42 +2436,17 @@
         <v>11</v>
       </c>
       <c r="I11" s="74" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="79" t="s">
-        <v>52</v>
-      </c>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E15" s="27"/>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -2147,24 +2469,24 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J12">
-    <sortCondition ref="A5:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J11">
+    <sortCondition ref="A5:A11"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{11EF4E6E-23B7-4B84-9F91-A5B470753DCD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8F7217-4558-4FC0-BDBF-3C3F69A96747}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2223,7 +2545,7 @@
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>25</v>
@@ -2250,12 +2572,12 @@
         <v>11</v>
       </c>
       <c r="J3" s="78" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>16</v>
@@ -2267,18 +2589,22 @@
         <v>11</v>
       </c>
       <c r="E4" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95"/>
+        <v>140</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="67" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J4" s="78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -2286,7 +2612,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>18</v>
@@ -2304,7 +2630,7 @@
         <v>4326</v>
       </c>
       <c r="J5" s="78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -2319,7 +2645,7 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="96"/>
@@ -2327,15 +2653,15 @@
         <v>11</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" s="78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>20</v>
@@ -2345,23 +2671,27 @@
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="96"/>
+        <v>169</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>166</v>
+      </c>
       <c r="H7" s="67" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J7" s="78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>20</v>
@@ -2371,10 +2701,14 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="96"/>
+        <v>168</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="96" t="s">
+        <v>167</v>
+      </c>
       <c r="H8" s="67" t="s">
         <v>11</v>
       </c>
@@ -2382,12 +2716,12 @@
         <v>48001</v>
       </c>
       <c r="J8" s="78" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>21</v>
@@ -2397,7 +2731,7 @@
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="96"/>
@@ -2408,24 +2742,26 @@
         <v>11</v>
       </c>
       <c r="J9" s="78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="54"/>
+        <v>171</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>11</v>
+      </c>
       <c r="G10" s="96"/>
       <c r="H10" s="67" t="s">
         <v>11</v>
@@ -2434,22 +2770,22 @@
         <v>26</v>
       </c>
       <c r="J10" s="78" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="96"/>
@@ -2457,10 +2793,10 @@
         <v>11</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="78" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -2468,14 +2804,14 @@
         <v>22</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="80" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F12" s="55"/>
       <c r="G12" s="96"/>
@@ -2483,10 +2819,10 @@
         <v>11</v>
       </c>
       <c r="I12" s="71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2551,12 +2887,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2565,7 +2901,7 @@
     <col min="2" max="2" width="13.88671875" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="73.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="107" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" style="2" bestFit="1" customWidth="1"/>
@@ -2615,7 +2951,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>25</v>
@@ -2634,12 +2970,12 @@
       </c>
       <c r="I3" s="64"/>
       <c r="J3" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>20</v>
@@ -2651,7 +2987,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="93" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F4" s="98"/>
       <c r="G4" s="99"/>
@@ -2660,12 +2996,12 @@
       </c>
       <c r="I4" s="65"/>
       <c r="J4" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>20</v>
@@ -2677,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F5" s="80" t="s">
         <v>11</v>
@@ -2690,15 +3026,15 @@
       </c>
       <c r="I5" s="64"/>
       <c r="J5" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="204" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="264" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>11</v>
@@ -2706,8 +3042,8 @@
       <c r="D6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="102" t="s">
-        <v>150</v>
+      <c r="E6" s="101" t="s">
+        <v>172</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="96"/>
@@ -2716,15 +3052,15 @@
       </c>
       <c r="I6" s="64"/>
       <c r="J6" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>11</v>
@@ -2733,21 +3069,25 @@
         <v>11</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="96"/>
+        <v>173</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>166</v>
+      </c>
       <c r="H7" s="31" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="64"/>
       <c r="J7" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>20</v>
@@ -2759,28 +3099,28 @@
         <v>11</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>11</v>
+        <v>174</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="96" t="s">
+        <v>167</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="64"/>
       <c r="J8" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
@@ -2789,7 +3129,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" s="55" t="s">
         <v>11</v>
@@ -2802,15 +3142,15 @@
       </c>
       <c r="I9" s="64"/>
       <c r="J9" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>18</v>
@@ -2819,7 +3159,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="80" t="s">
         <v>11</v>
@@ -2832,15 +3172,15 @@
       </c>
       <c r="I10" s="54"/>
       <c r="J10" s="81" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="11" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>18</v>
@@ -2848,8 +3188,8 @@
       <c r="D11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="100" t="s">
-        <v>148</v>
+      <c r="E11" s="107" t="s">
+        <v>175</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="96"/>
@@ -2858,15 +3198,15 @@
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="81" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>11</v>
@@ -2874,8 +3214,8 @@
       <c r="D12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="101">
-        <v>39814</v>
+      <c r="E12" s="100" t="s">
+        <v>176</v>
       </c>
       <c r="F12" s="54"/>
       <c r="G12" s="96"/>
@@ -2883,18 +3223,18 @@
         <v>11</v>
       </c>
       <c r="I12" s="80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>18</v>
@@ -2903,7 +3243,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" s="80"/>
       <c r="G13" s="56"/>
@@ -2911,15 +3251,15 @@
         <v>11</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J13" s="81" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>21</v>
@@ -2931,7 +3271,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="97" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="56"/>
@@ -2939,12 +3279,12 @@
         <v>11</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>21</v>
@@ -2956,7 +3296,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="56"/>
@@ -2964,7 +3304,7 @@
         <v>11</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -3003,12 +3343,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466A648D-819E-4218-A4B0-4C8007085FA3}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3067,7 +3407,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>25</v>
@@ -3086,12 +3426,12 @@
       </c>
       <c r="I3" s="76"/>
       <c r="J3" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>25</v>
@@ -3103,7 +3443,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F4" s="88" t="s">
         <v>11</v>
@@ -3115,10 +3455,10 @@
         <v>11</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3135,7 +3475,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F5" s="88" t="s">
         <v>11</v>
@@ -3147,15 +3487,15 @@
         <v>11</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>25</v>
@@ -3167,7 +3507,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" s="88" t="s">
         <v>11</v>
@@ -3179,15 +3519,15 @@
         <v>11</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>25</v>
@@ -3199,7 +3539,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="88" t="s">
         <v>11</v>
@@ -3211,10 +3551,10 @@
         <v>11</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3292,7 +3632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A26DA6-FFEA-403F-8C16-B9588EA712AA}">
   <dimension ref="B2:XFD26"/>
   <sheetViews>
